--- a/data/ref/Microciclos.xlsx
+++ b/data/ref/Microciclos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico\Desktop\DATA SCIENCE\PP- VOLUNTAREADO\chivas-ml\data\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E789E583-657F-4CBA-8E5F-C897AF4A363C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532E7E0D-E806-486F-8F1E-8945205F3F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D2A59680-2B68-43A7-A0B3-40444AC197F4}"/>
   </bookViews>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="34">
   <si>
     <t>Fecha</t>
   </si>
   <si>
-    <t>Microciclo</t>
-  </si>
-  <si>
     <t>Partido</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>Necaxa</t>
   </si>
   <si>
-    <t>Tipo</t>
-  </si>
-  <si>
     <t>Puebla</t>
   </si>
   <si>
@@ -132,6 +126,18 @@
   </si>
   <si>
     <t>Competencia</t>
+  </si>
+  <si>
+    <t>Microciclo_Num</t>
+  </si>
+  <si>
+    <t>Tipo_Microciclo</t>
+  </si>
+  <si>
+    <t>Pretemporada</t>
+  </si>
+  <si>
+    <t>Tipo_Dia</t>
   </si>
 </sst>
 </file>
@@ -510,42 +516,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6662318-5429-45BF-A116-92A73FB7B911}">
-  <dimension ref="A1:F130"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="126" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="126" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45798</v>
       </c>
@@ -553,13 +562,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45799</v>
       </c>
@@ -567,13 +579,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45800</v>
       </c>
@@ -581,13 +596,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45801</v>
       </c>
@@ -595,13 +613,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45802</v>
       </c>
@@ -609,13 +630,16 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45803</v>
       </c>
@@ -623,13 +647,16 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45804</v>
       </c>
@@ -637,13 +664,16 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45805</v>
       </c>
@@ -651,13 +681,16 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45806</v>
       </c>
@@ -665,13 +698,16 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45807</v>
       </c>
@@ -679,13 +715,16 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45808</v>
       </c>
@@ -693,13 +732,16 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45809</v>
       </c>
@@ -707,13 +749,16 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45810</v>
       </c>
@@ -721,13 +766,16 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45811</v>
       </c>
@@ -735,13 +783,16 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45812</v>
       </c>
@@ -749,10 +800,13 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -763,10 +817,13 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -777,10 +834,13 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -791,10 +851,13 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -805,10 +868,13 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -819,10 +885,13 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -833,10 +902,13 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -847,10 +919,13 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -861,10 +936,13 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -875,10 +953,13 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -889,10 +970,13 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -903,10 +987,13 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -917,10 +1004,13 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
       </c>
       <c r="E28" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -931,10 +1021,13 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -945,10 +1038,13 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -959,10 +1055,13 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
       </c>
       <c r="E31" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -973,13 +1072,16 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45829</v>
       </c>
@@ -987,13 +1089,16 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>25</v>
       </c>
       <c r="E33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45830</v>
       </c>
@@ -1001,13 +1106,16 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>25</v>
       </c>
       <c r="E34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45831</v>
       </c>
@@ -1015,13 +1123,16 @@
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
       </c>
       <c r="E35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45832</v>
       </c>
@@ -1029,13 +1140,16 @@
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45833</v>
       </c>
@@ -1043,13 +1157,16 @@
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D37" t="s">
+        <v>26</v>
       </c>
       <c r="E37" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45834</v>
       </c>
@@ -1057,13 +1174,16 @@
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
       </c>
       <c r="E38" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45835</v>
       </c>
@@ -1071,13 +1191,16 @@
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D39" t="s">
+        <v>26</v>
       </c>
       <c r="E39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45836</v>
       </c>
@@ -1085,13 +1208,16 @@
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
       </c>
       <c r="E40" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45837</v>
       </c>
@@ -1099,13 +1225,16 @@
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
       </c>
       <c r="E41" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45838</v>
       </c>
@@ -1113,13 +1242,16 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D42" t="s">
+        <v>28</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45839</v>
       </c>
@@ -1127,13 +1259,16 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D43" t="s">
+        <v>28</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45840</v>
       </c>
@@ -1141,13 +1276,16 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D44" t="s">
+        <v>28</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45841</v>
       </c>
@@ -1155,13 +1293,16 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D45" t="s">
+        <v>28</v>
       </c>
       <c r="E45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45842</v>
       </c>
@@ -1169,13 +1310,16 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D46" t="s">
+        <v>28</v>
       </c>
       <c r="E46" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45843</v>
       </c>
@@ -1183,16 +1327,19 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="D47" t="s">
+        <v>28</v>
       </c>
       <c r="E47" t="s">
-        <v>30</v>
-      </c>
-      <c r="F47" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45844</v>
       </c>
@@ -1200,13 +1347,16 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>32</v>
+      </c>
+      <c r="D48" t="s">
+        <v>28</v>
       </c>
       <c r="E48" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45845</v>
       </c>
@@ -1214,13 +1364,19 @@
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="D49" t="s">
+        <v>29</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45846</v>
       </c>
@@ -1228,13 +1384,19 @@
         <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="D50" t="s">
+        <v>29</v>
       </c>
       <c r="E50" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45847</v>
       </c>
@@ -1242,13 +1404,19 @@
         <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="D51" t="s">
+        <v>29</v>
       </c>
       <c r="E51" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45848</v>
       </c>
@@ -1256,13 +1424,19 @@
         <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="D52" t="s">
+        <v>29</v>
       </c>
       <c r="E52" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F52">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>45849</v>
       </c>
@@ -1270,13 +1444,19 @@
         <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="D53" t="s">
+        <v>29</v>
       </c>
       <c r="E53" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F53">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45850</v>
       </c>
@@ -1286,11 +1466,14 @@
       <c r="C54" t="s">
         <v>29</v>
       </c>
+      <c r="D54" t="s">
+        <v>29</v>
+      </c>
       <c r="E54" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>45851</v>
       </c>
@@ -1298,13 +1481,16 @@
         <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>29</v>
+      </c>
+      <c r="D55" t="s">
+        <v>29</v>
       </c>
       <c r="E55" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45852</v>
       </c>
@@ -1312,16 +1498,19 @@
         <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>23</v>
-      </c>
-      <c r="D56">
+        <v>29</v>
+      </c>
+      <c r="D56" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56">
         <v>1</v>
       </c>
-      <c r="E56" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45853</v>
       </c>
@@ -1329,16 +1518,19 @@
         <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>23</v>
-      </c>
-      <c r="D57">
+        <v>29</v>
+      </c>
+      <c r="D57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57">
         <v>2</v>
       </c>
-      <c r="E57" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45854</v>
       </c>
@@ -1346,16 +1538,19 @@
         <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>23</v>
-      </c>
-      <c r="D58">
+        <v>29</v>
+      </c>
+      <c r="D58" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58">
         <v>3</v>
       </c>
-      <c r="E58" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45855</v>
       </c>
@@ -1363,16 +1558,19 @@
         <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59">
+        <v>29</v>
+      </c>
+      <c r="D59" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59">
         <v>-2</v>
       </c>
-      <c r="E59" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45856</v>
       </c>
@@ -1380,16 +1578,19 @@
         <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D60">
+        <v>29</v>
+      </c>
+      <c r="D60" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60">
         <v>-1</v>
       </c>
-      <c r="E60" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45857</v>
       </c>
@@ -1397,16 +1598,19 @@
         <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="D61" t="s">
+        <v>29</v>
       </c>
       <c r="E61" t="s">
-        <v>31</v>
-      </c>
-      <c r="F61" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45858</v>
       </c>
@@ -1414,13 +1618,16 @@
         <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>29</v>
+      </c>
+      <c r="D62" t="s">
+        <v>29</v>
       </c>
       <c r="E62" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>45859</v>
       </c>
@@ -1428,16 +1635,19 @@
         <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>23</v>
-      </c>
-      <c r="D63">
+        <v>29</v>
+      </c>
+      <c r="D63" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63">
         <v>1</v>
       </c>
-      <c r="E63" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>45860</v>
       </c>
@@ -1445,16 +1655,19 @@
         <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>23</v>
-      </c>
-      <c r="D64">
+        <v>29</v>
+      </c>
+      <c r="D64" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64">
         <v>2</v>
       </c>
-      <c r="E64" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45861</v>
       </c>
@@ -1462,16 +1675,19 @@
         <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>23</v>
-      </c>
-      <c r="D65">
+        <v>29</v>
+      </c>
+      <c r="D65" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65">
         <v>3</v>
       </c>
-      <c r="E65" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45862</v>
       </c>
@@ -1479,16 +1695,19 @@
         <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
-      </c>
-      <c r="D66">
+        <v>29</v>
+      </c>
+      <c r="D66" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" t="s">
+        <v>21</v>
+      </c>
+      <c r="F66">
         <v>-2</v>
       </c>
-      <c r="E66" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45863</v>
       </c>
@@ -1496,16 +1715,19 @@
         <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
-      </c>
-      <c r="D67">
+        <v>29</v>
+      </c>
+      <c r="D67" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67">
         <v>-1</v>
       </c>
-      <c r="E67" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45864</v>
       </c>
@@ -1513,16 +1735,19 @@
         <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="D68" t="s">
+        <v>29</v>
       </c>
       <c r="E68" t="s">
-        <v>31</v>
-      </c>
-      <c r="F68" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="G68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>45865</v>
       </c>
@@ -1530,13 +1755,16 @@
         <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>29</v>
+      </c>
+      <c r="D69" t="s">
+        <v>29</v>
       </c>
       <c r="E69" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45866</v>
       </c>
@@ -1544,16 +1772,19 @@
         <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>23</v>
-      </c>
-      <c r="D70">
+        <v>29</v>
+      </c>
+      <c r="D70" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" t="s">
+        <v>21</v>
+      </c>
+      <c r="F70">
         <v>1</v>
       </c>
-      <c r="E70" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>45867</v>
       </c>
@@ -1561,16 +1792,19 @@
         <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>23</v>
-      </c>
-      <c r="D71">
+        <v>29</v>
+      </c>
+      <c r="D71" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71" t="s">
+        <v>21</v>
+      </c>
+      <c r="F71">
         <v>-2</v>
       </c>
-      <c r="E71" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45868</v>
       </c>
@@ -1578,16 +1812,19 @@
         <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>23</v>
-      </c>
-      <c r="D72">
+        <v>29</v>
+      </c>
+      <c r="D72" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72" t="s">
+        <v>21</v>
+      </c>
+      <c r="F72">
         <v>-1</v>
       </c>
-      <c r="E72" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>45869</v>
       </c>
@@ -1595,16 +1832,19 @@
         <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="D73" t="s">
+        <v>29</v>
       </c>
       <c r="E73" t="s">
-        <v>31</v>
-      </c>
-      <c r="F73" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45870</v>
       </c>
@@ -1612,13 +1852,16 @@
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>19</v>
+        <v>29</v>
+      </c>
+      <c r="D74" t="s">
+        <v>29</v>
       </c>
       <c r="E74" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>45871</v>
       </c>
@@ -1626,16 +1869,19 @@
         <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>23</v>
-      </c>
-      <c r="D75">
+        <v>29</v>
+      </c>
+      <c r="D75" t="s">
+        <v>29</v>
+      </c>
+      <c r="E75" t="s">
+        <v>21</v>
+      </c>
+      <c r="F75">
         <v>-1</v>
       </c>
-      <c r="E75" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>45872</v>
       </c>
@@ -1643,16 +1889,19 @@
         <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="D76" t="s">
+        <v>29</v>
       </c>
       <c r="E76" t="s">
-        <v>31</v>
-      </c>
-      <c r="F76" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="G76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>45873</v>
       </c>
@@ -1660,16 +1909,19 @@
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>23</v>
-      </c>
-      <c r="D77">
+        <v>29</v>
+      </c>
+      <c r="D77" t="s">
+        <v>29</v>
+      </c>
+      <c r="E77" t="s">
+        <v>21</v>
+      </c>
+      <c r="F77">
         <v>1</v>
       </c>
-      <c r="E77" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45874</v>
       </c>
@@ -1677,13 +1929,16 @@
         <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>29</v>
+      </c>
+      <c r="D78" t="s">
+        <v>29</v>
       </c>
       <c r="E78" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>45875</v>
       </c>
@@ -1691,16 +1946,19 @@
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>23</v>
-      </c>
-      <c r="D79">
+        <v>29</v>
+      </c>
+      <c r="D79" t="s">
+        <v>29</v>
+      </c>
+      <c r="E79" t="s">
+        <v>21</v>
+      </c>
+      <c r="F79">
         <v>-1</v>
       </c>
-      <c r="E79" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>45876</v>
       </c>
@@ -1708,16 +1966,19 @@
         <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="D80" t="s">
+        <v>29</v>
       </c>
       <c r="E80" t="s">
-        <v>31</v>
-      </c>
-      <c r="F80" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="G80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>45877</v>
       </c>
@@ -1725,13 +1986,16 @@
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>19</v>
+        <v>29</v>
+      </c>
+      <c r="D81" t="s">
+        <v>29</v>
       </c>
       <c r="E81" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>45878</v>
       </c>
@@ -1739,16 +2003,19 @@
         <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>23</v>
-      </c>
-      <c r="D82">
+        <v>29</v>
+      </c>
+      <c r="D82" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82" t="s">
+        <v>21</v>
+      </c>
+      <c r="F82">
         <v>-1</v>
       </c>
-      <c r="E82" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>45879</v>
       </c>
@@ -1756,16 +2023,19 @@
         <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="D83" t="s">
+        <v>29</v>
       </c>
       <c r="E83" t="s">
-        <v>31</v>
-      </c>
-      <c r="F83" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="G83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>45880</v>
       </c>
@@ -1773,13 +2043,16 @@
         <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>19</v>
+        <v>29</v>
+      </c>
+      <c r="D84" t="s">
+        <v>29</v>
       </c>
       <c r="E84" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>45881</v>
       </c>
@@ -1787,16 +2060,19 @@
         <v>13</v>
       </c>
       <c r="C85" t="s">
-        <v>23</v>
-      </c>
-      <c r="D85">
+        <v>29</v>
+      </c>
+      <c r="D85" t="s">
+        <v>29</v>
+      </c>
+      <c r="E85" t="s">
+        <v>21</v>
+      </c>
+      <c r="F85">
         <v>1</v>
       </c>
-      <c r="E85" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>45882</v>
       </c>
@@ -1804,16 +2080,19 @@
         <v>13</v>
       </c>
       <c r="C86" t="s">
-        <v>23</v>
-      </c>
-      <c r="D86">
+        <v>29</v>
+      </c>
+      <c r="D86" t="s">
+        <v>29</v>
+      </c>
+      <c r="E86" t="s">
+        <v>21</v>
+      </c>
+      <c r="F86">
         <v>2</v>
       </c>
-      <c r="E86" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>45883</v>
       </c>
@@ -1821,16 +2100,19 @@
         <v>13</v>
       </c>
       <c r="C87" t="s">
-        <v>23</v>
-      </c>
-      <c r="D87">
+        <v>29</v>
+      </c>
+      <c r="D87" t="s">
+        <v>29</v>
+      </c>
+      <c r="E87" t="s">
+        <v>21</v>
+      </c>
+      <c r="F87">
         <v>-2</v>
       </c>
-      <c r="E87" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>45884</v>
       </c>
@@ -1838,16 +2120,19 @@
         <v>13</v>
       </c>
       <c r="C88" t="s">
-        <v>23</v>
-      </c>
-      <c r="D88">
+        <v>29</v>
+      </c>
+      <c r="D88" t="s">
+        <v>29</v>
+      </c>
+      <c r="E88" t="s">
+        <v>21</v>
+      </c>
+      <c r="F88">
         <v>-1</v>
       </c>
-      <c r="E88" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>45885</v>
       </c>
@@ -1855,16 +2140,19 @@
         <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="D89" t="s">
+        <v>29</v>
       </c>
       <c r="E89" t="s">
-        <v>31</v>
-      </c>
-      <c r="F89" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="G89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>45886</v>
       </c>
@@ -1872,13 +2160,16 @@
         <v>13</v>
       </c>
       <c r="C90" t="s">
-        <v>19</v>
+        <v>29</v>
+      </c>
+      <c r="D90" t="s">
+        <v>29</v>
       </c>
       <c r="E90" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>45887</v>
       </c>
@@ -1886,16 +2177,19 @@
         <v>14</v>
       </c>
       <c r="C91" t="s">
-        <v>23</v>
-      </c>
-      <c r="D91">
+        <v>29</v>
+      </c>
+      <c r="D91" t="s">
+        <v>29</v>
+      </c>
+      <c r="E91" t="s">
+        <v>21</v>
+      </c>
+      <c r="F91">
         <v>1</v>
       </c>
-      <c r="E91" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>45888</v>
       </c>
@@ -1903,16 +2197,19 @@
         <v>14</v>
       </c>
       <c r="C92" t="s">
-        <v>23</v>
-      </c>
-      <c r="D92">
+        <v>29</v>
+      </c>
+      <c r="D92" t="s">
+        <v>29</v>
+      </c>
+      <c r="E92" t="s">
+        <v>21</v>
+      </c>
+      <c r="F92">
         <v>2</v>
       </c>
-      <c r="E92" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>45889</v>
       </c>
@@ -1920,16 +2217,19 @@
         <v>14</v>
       </c>
       <c r="C93" t="s">
-        <v>23</v>
-      </c>
-      <c r="D93">
+        <v>29</v>
+      </c>
+      <c r="D93" t="s">
+        <v>29</v>
+      </c>
+      <c r="E93" t="s">
+        <v>21</v>
+      </c>
+      <c r="F93">
         <v>-2</v>
       </c>
-      <c r="E93" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>45890</v>
       </c>
@@ -1937,16 +2237,19 @@
         <v>14</v>
       </c>
       <c r="C94" t="s">
-        <v>23</v>
-      </c>
-      <c r="D94">
+        <v>29</v>
+      </c>
+      <c r="D94" t="s">
+        <v>29</v>
+      </c>
+      <c r="E94" t="s">
+        <v>21</v>
+      </c>
+      <c r="F94">
         <v>-1</v>
       </c>
-      <c r="E94" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>45891</v>
       </c>
@@ -1954,16 +2257,19 @@
         <v>14</v>
       </c>
       <c r="C95" t="s">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="D95" t="s">
+        <v>29</v>
       </c>
       <c r="E95" t="s">
-        <v>31</v>
-      </c>
-      <c r="F95" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>45892</v>
       </c>
@@ -1971,13 +2277,16 @@
         <v>14</v>
       </c>
       <c r="C96" t="s">
-        <v>19</v>
+        <v>29</v>
+      </c>
+      <c r="D96" t="s">
+        <v>29</v>
       </c>
       <c r="E96" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>45893</v>
       </c>
@@ -1985,13 +2294,16 @@
         <v>14</v>
       </c>
       <c r="C97" t="s">
-        <v>19</v>
+        <v>29</v>
+      </c>
+      <c r="D97" t="s">
+        <v>29</v>
       </c>
       <c r="E97" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>45894</v>
       </c>
@@ -1999,16 +2311,19 @@
         <v>15</v>
       </c>
       <c r="C98" t="s">
-        <v>23</v>
-      </c>
-      <c r="D98">
+        <v>29</v>
+      </c>
+      <c r="D98" t="s">
+        <v>29</v>
+      </c>
+      <c r="E98" t="s">
+        <v>21</v>
+      </c>
+      <c r="F98">
         <v>1</v>
       </c>
-      <c r="E98" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>45895</v>
       </c>
@@ -2016,16 +2331,19 @@
         <v>15</v>
       </c>
       <c r="C99" t="s">
-        <v>23</v>
-      </c>
-      <c r="D99">
+        <v>29</v>
+      </c>
+      <c r="D99" t="s">
+        <v>29</v>
+      </c>
+      <c r="E99" t="s">
+        <v>21</v>
+      </c>
+      <c r="F99">
         <v>2</v>
       </c>
-      <c r="E99" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>45896</v>
       </c>
@@ -2033,16 +2351,19 @@
         <v>15</v>
       </c>
       <c r="C100" t="s">
-        <v>23</v>
-      </c>
-      <c r="D100">
+        <v>29</v>
+      </c>
+      <c r="D100" t="s">
+        <v>29</v>
+      </c>
+      <c r="E100" t="s">
+        <v>21</v>
+      </c>
+      <c r="F100">
         <v>-3</v>
       </c>
-      <c r="E100" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>45897</v>
       </c>
@@ -2050,16 +2371,19 @@
         <v>15</v>
       </c>
       <c r="C101" t="s">
-        <v>23</v>
-      </c>
-      <c r="D101">
+        <v>29</v>
+      </c>
+      <c r="D101" t="s">
+        <v>29</v>
+      </c>
+      <c r="E101" t="s">
+        <v>21</v>
+      </c>
+      <c r="F101">
         <v>-2</v>
       </c>
-      <c r="E101" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>45898</v>
       </c>
@@ -2067,16 +2391,19 @@
         <v>15</v>
       </c>
       <c r="C102" t="s">
-        <v>23</v>
-      </c>
-      <c r="D102">
+        <v>29</v>
+      </c>
+      <c r="D102" t="s">
+        <v>29</v>
+      </c>
+      <c r="E102" t="s">
+        <v>21</v>
+      </c>
+      <c r="F102">
         <v>-1</v>
       </c>
-      <c r="E102" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>45899</v>
       </c>
@@ -2084,16 +2411,19 @@
         <v>15</v>
       </c>
       <c r="C103" t="s">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="D103" t="s">
+        <v>29</v>
       </c>
       <c r="E103" t="s">
-        <v>31</v>
-      </c>
-      <c r="F103" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="G103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>45900</v>
       </c>
@@ -2101,13 +2431,16 @@
         <v>15</v>
       </c>
       <c r="C104" t="s">
-        <v>19</v>
+        <v>29</v>
+      </c>
+      <c r="D104" t="s">
+        <v>29</v>
       </c>
       <c r="E104" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>45901</v>
       </c>
@@ -2115,13 +2448,16 @@
         <v>16</v>
       </c>
       <c r="C105" t="s">
-        <v>19</v>
+        <v>29</v>
+      </c>
+      <c r="D105" t="s">
+        <v>29</v>
       </c>
       <c r="E105" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>45902</v>
       </c>
@@ -2129,16 +2465,19 @@
         <v>16</v>
       </c>
       <c r="C106" t="s">
-        <v>23</v>
-      </c>
-      <c r="D106">
+        <v>29</v>
+      </c>
+      <c r="D106" t="s">
+        <v>29</v>
+      </c>
+      <c r="E106" t="s">
+        <v>21</v>
+      </c>
+      <c r="F106">
         <v>1</v>
       </c>
-      <c r="E106" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>45903</v>
       </c>
@@ -2146,16 +2485,19 @@
         <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>23</v>
-      </c>
-      <c r="D107">
+        <v>29</v>
+      </c>
+      <c r="D107" t="s">
+        <v>29</v>
+      </c>
+      <c r="E107" t="s">
+        <v>21</v>
+      </c>
+      <c r="F107">
         <v>2</v>
       </c>
-      <c r="E107" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>45904</v>
       </c>
@@ -2163,16 +2505,19 @@
         <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>23</v>
-      </c>
-      <c r="D108">
+        <v>29</v>
+      </c>
+      <c r="D108" t="s">
+        <v>29</v>
+      </c>
+      <c r="E108" t="s">
+        <v>21</v>
+      </c>
+      <c r="F108">
         <v>3</v>
       </c>
-      <c r="E108" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>45905</v>
       </c>
@@ -2180,13 +2525,16 @@
         <v>16</v>
       </c>
       <c r="C109" t="s">
-        <v>19</v>
+        <v>29</v>
+      </c>
+      <c r="D109" t="s">
+        <v>29</v>
       </c>
       <c r="E109" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>45906</v>
       </c>
@@ -2194,16 +2542,19 @@
         <v>16</v>
       </c>
       <c r="C110" t="s">
-        <v>23</v>
-      </c>
-      <c r="D110">
+        <v>29</v>
+      </c>
+      <c r="D110" t="s">
+        <v>29</v>
+      </c>
+      <c r="E110" t="s">
+        <v>21</v>
+      </c>
+      <c r="F110">
         <v>-1</v>
       </c>
-      <c r="E110" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>45907</v>
       </c>
@@ -2211,16 +2562,19 @@
         <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="D111" t="s">
+        <v>29</v>
       </c>
       <c r="E111" t="s">
-        <v>31</v>
-      </c>
-      <c r="F111" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="G111" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>45908</v>
       </c>
@@ -2228,13 +2582,16 @@
         <v>17</v>
       </c>
       <c r="C112" t="s">
-        <v>19</v>
+        <v>29</v>
+      </c>
+      <c r="D112" t="s">
+        <v>29</v>
       </c>
       <c r="E112" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>45909</v>
       </c>
@@ -2242,16 +2599,19 @@
         <v>17</v>
       </c>
       <c r="C113" t="s">
-        <v>23</v>
-      </c>
-      <c r="D113">
+        <v>29</v>
+      </c>
+      <c r="D113" t="s">
+        <v>29</v>
+      </c>
+      <c r="E113" t="s">
+        <v>21</v>
+      </c>
+      <c r="F113">
         <v>1</v>
       </c>
-      <c r="E113" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>45910</v>
       </c>
@@ -2259,16 +2619,19 @@
         <v>17</v>
       </c>
       <c r="C114" t="s">
-        <v>23</v>
-      </c>
-      <c r="D114">
+        <v>29</v>
+      </c>
+      <c r="D114" t="s">
+        <v>29</v>
+      </c>
+      <c r="E114" t="s">
+        <v>21</v>
+      </c>
+      <c r="F114">
         <v>2</v>
       </c>
-      <c r="E114" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>45911</v>
       </c>
@@ -2276,16 +2639,19 @@
         <v>17</v>
       </c>
       <c r="C115" t="s">
-        <v>23</v>
-      </c>
-      <c r="D115">
+        <v>29</v>
+      </c>
+      <c r="D115" t="s">
+        <v>29</v>
+      </c>
+      <c r="E115" t="s">
+        <v>21</v>
+      </c>
+      <c r="F115">
         <v>-2</v>
       </c>
-      <c r="E115" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>45912</v>
       </c>
@@ -2293,16 +2659,19 @@
         <v>17</v>
       </c>
       <c r="C116" t="s">
-        <v>23</v>
-      </c>
-      <c r="D116">
+        <v>29</v>
+      </c>
+      <c r="D116" t="s">
+        <v>29</v>
+      </c>
+      <c r="E116" t="s">
+        <v>21</v>
+      </c>
+      <c r="F116">
         <v>-1</v>
       </c>
-      <c r="E116" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>45913</v>
       </c>
@@ -2310,16 +2679,19 @@
         <v>17</v>
       </c>
       <c r="C117" t="s">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="D117" t="s">
+        <v>29</v>
       </c>
       <c r="E117" t="s">
-        <v>31</v>
-      </c>
-      <c r="F117" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="G117" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>45914</v>
       </c>
@@ -2327,13 +2699,16 @@
         <v>17</v>
       </c>
       <c r="C118" t="s">
-        <v>19</v>
+        <v>29</v>
+      </c>
+      <c r="D118" t="s">
+        <v>29</v>
       </c>
       <c r="E118" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>45915</v>
       </c>
@@ -2341,16 +2716,19 @@
         <v>18</v>
       </c>
       <c r="C119" t="s">
-        <v>23</v>
-      </c>
-      <c r="D119">
+        <v>29</v>
+      </c>
+      <c r="D119" t="s">
+        <v>29</v>
+      </c>
+      <c r="E119" t="s">
+        <v>21</v>
+      </c>
+      <c r="F119">
         <v>1</v>
       </c>
-      <c r="E119" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>45916</v>
       </c>
@@ -2358,16 +2736,19 @@
         <v>18</v>
       </c>
       <c r="C120" t="s">
-        <v>23</v>
-      </c>
-      <c r="D120">
+        <v>29</v>
+      </c>
+      <c r="D120" t="s">
+        <v>29</v>
+      </c>
+      <c r="E120" t="s">
+        <v>21</v>
+      </c>
+      <c r="F120">
         <v>-1</v>
       </c>
-      <c r="E120" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>45917</v>
       </c>
@@ -2375,16 +2756,19 @@
         <v>18</v>
       </c>
       <c r="C121" t="s">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="D121" t="s">
+        <v>29</v>
       </c>
       <c r="E121" t="s">
-        <v>31</v>
-      </c>
-      <c r="F121" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="G121" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>45918</v>
       </c>
@@ -2392,16 +2776,19 @@
         <v>18</v>
       </c>
       <c r="C122" t="s">
-        <v>23</v>
-      </c>
-      <c r="D122">
+        <v>29</v>
+      </c>
+      <c r="D122" t="s">
+        <v>29</v>
+      </c>
+      <c r="E122" t="s">
+        <v>21</v>
+      </c>
+      <c r="F122">
         <v>1</v>
       </c>
-      <c r="E122" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>45919</v>
       </c>
@@ -2409,16 +2796,19 @@
         <v>18</v>
       </c>
       <c r="C123" t="s">
-        <v>23</v>
-      </c>
-      <c r="D123">
+        <v>29</v>
+      </c>
+      <c r="D123" t="s">
+        <v>29</v>
+      </c>
+      <c r="E123" t="s">
+        <v>21</v>
+      </c>
+      <c r="F123">
         <v>-1</v>
       </c>
-      <c r="E123" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>45920</v>
       </c>
@@ -2426,16 +2816,19 @@
         <v>18</v>
       </c>
       <c r="C124" t="s">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="D124" t="s">
+        <v>29</v>
       </c>
       <c r="E124" t="s">
-        <v>31</v>
-      </c>
-      <c r="F124" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="G124" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>45921</v>
       </c>
@@ -2443,16 +2836,19 @@
         <v>18</v>
       </c>
       <c r="C125" t="s">
-        <v>23</v>
-      </c>
-      <c r="D125">
+        <v>29</v>
+      </c>
+      <c r="D125" t="s">
+        <v>29</v>
+      </c>
+      <c r="E125" t="s">
+        <v>21</v>
+      </c>
+      <c r="F125">
         <v>1</v>
       </c>
-      <c r="E125" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>45922</v>
       </c>
@@ -2460,16 +2856,19 @@
         <v>19</v>
       </c>
       <c r="C126" t="s">
-        <v>23</v>
-      </c>
-      <c r="D126">
+        <v>29</v>
+      </c>
+      <c r="D126" t="s">
+        <v>29</v>
+      </c>
+      <c r="E126" t="s">
+        <v>21</v>
+      </c>
+      <c r="F126">
         <v>-1</v>
       </c>
-      <c r="E126" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>45923</v>
       </c>
@@ -2477,16 +2876,19 @@
         <v>19</v>
       </c>
       <c r="C127" t="s">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="D127" t="s">
+        <v>29</v>
       </c>
       <c r="E127" t="s">
-        <v>31</v>
-      </c>
-      <c r="F127" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="G127" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>45924</v>
       </c>
@@ -2494,16 +2896,19 @@
         <v>19</v>
       </c>
       <c r="C128" t="s">
-        <v>23</v>
-      </c>
-      <c r="D128">
+        <v>29</v>
+      </c>
+      <c r="D128" t="s">
+        <v>29</v>
+      </c>
+      <c r="E128" t="s">
+        <v>21</v>
+      </c>
+      <c r="F128">
         <v>1</v>
       </c>
-      <c r="E128" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>45925</v>
       </c>
@@ -2511,16 +2916,19 @@
         <v>19</v>
       </c>
       <c r="C129" t="s">
-        <v>23</v>
-      </c>
-      <c r="D129">
+        <v>29</v>
+      </c>
+      <c r="D129" t="s">
+        <v>29</v>
+      </c>
+      <c r="E129" t="s">
+        <v>21</v>
+      </c>
+      <c r="F129">
         <v>-1</v>
       </c>
-      <c r="E129" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>45926</v>
       </c>
@@ -2528,13 +2936,16 @@
         <v>19</v>
       </c>
       <c r="C130" t="s">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="D130" t="s">
+        <v>29</v>
       </c>
       <c r="E130" t="s">
-        <v>31</v>
-      </c>
-      <c r="F130" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="G130" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/ref/Microciclos.xlsx
+++ b/data/ref/Microciclos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico\Desktop\DATA SCIENCE\PP- VOLUNTAREADO\chivas-ml\data\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532E7E0D-E806-486F-8F1E-8945205F3F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3637CD39-DC75-427A-98C4-3B668E33D53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D2A59680-2B68-43A7-A0B3-40444AC197F4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="35">
   <si>
     <t>Fecha</t>
   </si>
@@ -138,13 +138,16 @@
   </si>
   <si>
     <t>Tipo_Dia</t>
+  </si>
+  <si>
+    <t>Pumas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +157,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -179,9 +190,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6662318-5429-45BF-A116-92A73FB7B911}">
-  <dimension ref="A1:G130"/>
+  <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="126" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="126" workbookViewId="0">
+      <selection activeCell="G146" sqref="G146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2905,7 +2917,7 @@
         <v>21</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -2922,10 +2934,7 @@
         <v>29</v>
       </c>
       <c r="E129" t="s">
-        <v>21</v>
-      </c>
-      <c r="F129">
-        <v>-1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -2942,10 +2951,301 @@
         <v>29</v>
       </c>
       <c r="E130" t="s">
+        <v>21</v>
+      </c>
+      <c r="F130">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>45927</v>
+      </c>
+      <c r="B131">
+        <v>19</v>
+      </c>
+      <c r="C131" t="s">
+        <v>29</v>
+      </c>
+      <c r="D131" t="s">
+        <v>29</v>
+      </c>
+      <c r="E131" t="s">
         <v>16</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G131" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>45928</v>
+      </c>
+      <c r="B132">
+        <v>19</v>
+      </c>
+      <c r="C132" t="s">
+        <v>29</v>
+      </c>
+      <c r="D132" t="s">
+        <v>29</v>
+      </c>
+      <c r="E132" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>45929</v>
+      </c>
+      <c r="B133">
+        <v>20</v>
+      </c>
+      <c r="C133" t="s">
+        <v>29</v>
+      </c>
+      <c r="D133" t="s">
+        <v>29</v>
+      </c>
+      <c r="E133" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>45930</v>
+      </c>
+      <c r="B134">
+        <v>20</v>
+      </c>
+      <c r="C134" t="s">
+        <v>29</v>
+      </c>
+      <c r="D134" t="s">
+        <v>29</v>
+      </c>
+      <c r="E134" t="s">
+        <v>21</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B135">
+        <v>20</v>
+      </c>
+      <c r="C135" t="s">
+        <v>29</v>
+      </c>
+      <c r="D135" t="s">
+        <v>29</v>
+      </c>
+      <c r="E135" t="s">
+        <v>21</v>
+      </c>
+      <c r="F135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>45932</v>
+      </c>
+      <c r="B136">
+        <v>20</v>
+      </c>
+      <c r="C136" t="s">
+        <v>29</v>
+      </c>
+      <c r="D136" t="s">
+        <v>29</v>
+      </c>
+      <c r="E136" t="s">
+        <v>21</v>
+      </c>
+      <c r="F136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>45933</v>
+      </c>
+      <c r="B137">
+        <v>20</v>
+      </c>
+      <c r="C137" t="s">
+        <v>29</v>
+      </c>
+      <c r="D137" t="s">
+        <v>29</v>
+      </c>
+      <c r="E137" t="s">
+        <v>21</v>
+      </c>
+      <c r="F137">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>45934</v>
+      </c>
+      <c r="B138">
+        <v>20</v>
+      </c>
+      <c r="C138" t="s">
+        <v>29</v>
+      </c>
+      <c r="D138" t="s">
+        <v>29</v>
+      </c>
+      <c r="E138" t="s">
+        <v>21</v>
+      </c>
+      <c r="F138">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>45935</v>
+      </c>
+      <c r="B139">
+        <v>20</v>
+      </c>
+      <c r="C139" t="s">
+        <v>29</v>
+      </c>
+      <c r="D139" t="s">
+        <v>29</v>
+      </c>
+      <c r="E139" t="s">
+        <v>16</v>
+      </c>
+      <c r="G139" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>45936</v>
+      </c>
+      <c r="B140">
+        <v>21</v>
+      </c>
+      <c r="C140" t="s">
+        <v>29</v>
+      </c>
+      <c r="D140" t="s">
+        <v>29</v>
+      </c>
+      <c r="E140" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>45937</v>
+      </c>
+      <c r="B141">
+        <v>21</v>
+      </c>
+      <c r="C141" t="s">
+        <v>29</v>
+      </c>
+      <c r="D141" t="s">
+        <v>29</v>
+      </c>
+      <c r="E141" t="s">
+        <v>21</v>
+      </c>
+      <c r="F141" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>45938</v>
+      </c>
+      <c r="B142">
+        <v>21</v>
+      </c>
+      <c r="C142" t="s">
+        <v>29</v>
+      </c>
+      <c r="D142" t="s">
+        <v>29</v>
+      </c>
+      <c r="E142" t="s">
+        <v>21</v>
+      </c>
+      <c r="F142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>45939</v>
+      </c>
+      <c r="B143">
+        <v>21</v>
+      </c>
+      <c r="C143" t="s">
+        <v>29</v>
+      </c>
+      <c r="D143" t="s">
+        <v>29</v>
+      </c>
+      <c r="E143" t="s">
+        <v>21</v>
+      </c>
+      <c r="F143">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>45940</v>
+      </c>
+      <c r="B144">
+        <v>21</v>
+      </c>
+      <c r="C144" t="s">
+        <v>29</v>
+      </c>
+      <c r="D144" t="s">
+        <v>29</v>
+      </c>
+      <c r="E144" t="s">
+        <v>21</v>
+      </c>
+      <c r="F144">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>45941</v>
+      </c>
+      <c r="B145">
+        <v>21</v>
+      </c>
+      <c r="C145" t="s">
+        <v>29</v>
+      </c>
+      <c r="D145" t="s">
+        <v>29</v>
+      </c>
+      <c r="E145" t="s">
+        <v>27</v>
+      </c>
+      <c r="G145" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/ref/Microciclos.xlsx
+++ b/data/ref/Microciclos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico\Desktop\DATA SCIENCE\PP- VOLUNTAREADO\chivas-ml\data\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3637CD39-DC75-427A-98C4-3B668E33D53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E227D6-180E-4990-97FA-F24D4586A67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D2A59680-2B68-43A7-A0B3-40444AC197F4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="36">
   <si>
     <t>Fecha</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>Pumas</t>
+  </si>
+  <si>
+    <t>Mazatlan</t>
   </si>
 </sst>
 </file>
@@ -528,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6662318-5429-45BF-A116-92A73FB7B911}">
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="126" workbookViewId="0">
-      <selection activeCell="G146" sqref="G146"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="126" workbookViewId="0">
+      <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +542,7 @@
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3248,6 +3251,160 @@
         <v>11</v>
       </c>
     </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>45942</v>
+      </c>
+      <c r="B146">
+        <v>21</v>
+      </c>
+      <c r="C146" t="s">
+        <v>29</v>
+      </c>
+      <c r="D146" t="s">
+        <v>29</v>
+      </c>
+      <c r="E146" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>45943</v>
+      </c>
+      <c r="B147">
+        <v>22</v>
+      </c>
+      <c r="C147" t="s">
+        <v>29</v>
+      </c>
+      <c r="D147" t="s">
+        <v>29</v>
+      </c>
+      <c r="E147" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>45944</v>
+      </c>
+      <c r="B148">
+        <v>22</v>
+      </c>
+      <c r="C148" t="s">
+        <v>29</v>
+      </c>
+      <c r="D148" t="s">
+        <v>29</v>
+      </c>
+      <c r="E148" t="s">
+        <v>21</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>45945</v>
+      </c>
+      <c r="B149">
+        <v>22</v>
+      </c>
+      <c r="C149" t="s">
+        <v>29</v>
+      </c>
+      <c r="D149" t="s">
+        <v>29</v>
+      </c>
+      <c r="E149" t="s">
+        <v>21</v>
+      </c>
+      <c r="F149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>45946</v>
+      </c>
+      <c r="B150">
+        <v>22</v>
+      </c>
+      <c r="C150" t="s">
+        <v>29</v>
+      </c>
+      <c r="D150" t="s">
+        <v>29</v>
+      </c>
+      <c r="E150" t="s">
+        <v>21</v>
+      </c>
+      <c r="F150">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>45947</v>
+      </c>
+      <c r="B151">
+        <v>22</v>
+      </c>
+      <c r="C151" t="s">
+        <v>29</v>
+      </c>
+      <c r="D151" t="s">
+        <v>29</v>
+      </c>
+      <c r="E151" t="s">
+        <v>21</v>
+      </c>
+      <c r="F151">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>45948</v>
+      </c>
+      <c r="B152">
+        <v>22</v>
+      </c>
+      <c r="C152" t="s">
+        <v>29</v>
+      </c>
+      <c r="D152" t="s">
+        <v>29</v>
+      </c>
+      <c r="E152" t="s">
+        <v>16</v>
+      </c>
+      <c r="G152" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>45949</v>
+      </c>
+      <c r="B153">
+        <v>22</v>
+      </c>
+      <c r="C153" t="s">
+        <v>29</v>
+      </c>
+      <c r="D153" t="s">
+        <v>29</v>
+      </c>
+      <c r="E153" t="s">
+        <v>21</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/ref/Microciclos.xlsx
+++ b/data/ref/Microciclos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico\Desktop\DATA SCIENCE\PP- VOLUNTAREADO\chivas-ml\data\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E227D6-180E-4990-97FA-F24D4586A67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EA3B2B-B860-44B4-9805-473EEE83F781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D2A59680-2B68-43A7-A0B3-40444AC197F4}"/>
   </bookViews>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6662318-5429-45BF-A116-92A73FB7B911}">
   <dimension ref="A1:G153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="126" workbookViewId="0">
-      <selection activeCell="A154" sqref="A154"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="126" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2375,7 +2375,7 @@
         <v>21</v>
       </c>
       <c r="F100">
-        <v>-3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">

--- a/data/ref/Microciclos.xlsx
+++ b/data/ref/Microciclos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico\Desktop\DATA SCIENCE\PP- VOLUNTAREADO\chivas-ml\data\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EA3B2B-B860-44B4-9805-473EEE83F781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1F217E-ED37-4742-B137-A1E9304408FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D2A59680-2B68-43A7-A0B3-40444AC197F4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="39">
   <si>
     <t>Fecha</t>
   </si>
@@ -144,6 +144,15 @@
   </si>
   <si>
     <t>Mazatlan</t>
+  </si>
+  <si>
+    <t>Queretaro</t>
+  </si>
+  <si>
+    <t>Atlas</t>
+  </si>
+  <si>
+    <t>Pachuca</t>
   </si>
 </sst>
 </file>
@@ -531,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6662318-5429-45BF-A116-92A73FB7B911}">
-  <dimension ref="A1:G153"/>
+  <dimension ref="A1:G167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="126" workbookViewId="0">
-      <selection activeCell="G100" sqref="G100"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="126" workbookViewId="0">
+      <selection activeCell="H165" sqref="H165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3405,6 +3414,280 @@
         <v>1</v>
       </c>
     </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>45950</v>
+      </c>
+      <c r="B154">
+        <v>23</v>
+      </c>
+      <c r="C154" t="s">
+        <v>29</v>
+      </c>
+      <c r="D154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E154" t="s">
+        <v>21</v>
+      </c>
+      <c r="F154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>45951</v>
+      </c>
+      <c r="B155">
+        <v>23</v>
+      </c>
+      <c r="C155" t="s">
+        <v>29</v>
+      </c>
+      <c r="D155" t="s">
+        <v>29</v>
+      </c>
+      <c r="E155" t="s">
+        <v>21</v>
+      </c>
+      <c r="F155">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>45952</v>
+      </c>
+      <c r="B156">
+        <v>23</v>
+      </c>
+      <c r="C156" t="s">
+        <v>29</v>
+      </c>
+      <c r="D156" t="s">
+        <v>29</v>
+      </c>
+      <c r="E156" t="s">
+        <v>16</v>
+      </c>
+      <c r="G156" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>45953</v>
+      </c>
+      <c r="B157">
+        <v>23</v>
+      </c>
+      <c r="C157" t="s">
+        <v>29</v>
+      </c>
+      <c r="D157" t="s">
+        <v>29</v>
+      </c>
+      <c r="E157" t="s">
+        <v>21</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>45954</v>
+      </c>
+      <c r="B158">
+        <v>23</v>
+      </c>
+      <c r="C158" t="s">
+        <v>29</v>
+      </c>
+      <c r="D158" t="s">
+        <v>29</v>
+      </c>
+      <c r="E158" t="s">
+        <v>21</v>
+      </c>
+      <c r="F158">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>45955</v>
+      </c>
+      <c r="B159">
+        <v>23</v>
+      </c>
+      <c r="C159" t="s">
+        <v>29</v>
+      </c>
+      <c r="D159" t="s">
+        <v>29</v>
+      </c>
+      <c r="E159" t="s">
+        <v>16</v>
+      </c>
+      <c r="G159" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>45956</v>
+      </c>
+      <c r="B160">
+        <v>23</v>
+      </c>
+      <c r="C160" t="s">
+        <v>29</v>
+      </c>
+      <c r="D160" t="s">
+        <v>29</v>
+      </c>
+      <c r="E160" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>45957</v>
+      </c>
+      <c r="B161">
+        <v>24</v>
+      </c>
+      <c r="C161" t="s">
+        <v>29</v>
+      </c>
+      <c r="D161" t="s">
+        <v>29</v>
+      </c>
+      <c r="E161" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>45958</v>
+      </c>
+      <c r="B162">
+        <v>24</v>
+      </c>
+      <c r="C162" t="s">
+        <v>29</v>
+      </c>
+      <c r="D162" t="s">
+        <v>29</v>
+      </c>
+      <c r="E162" t="s">
+        <v>21</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>45959</v>
+      </c>
+      <c r="B163">
+        <v>24</v>
+      </c>
+      <c r="C163" t="s">
+        <v>29</v>
+      </c>
+      <c r="D163" t="s">
+        <v>29</v>
+      </c>
+      <c r="E163" t="s">
+        <v>21</v>
+      </c>
+      <c r="F163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>45960</v>
+      </c>
+      <c r="B164">
+        <v>24</v>
+      </c>
+      <c r="C164" t="s">
+        <v>29</v>
+      </c>
+      <c r="D164" t="s">
+        <v>29</v>
+      </c>
+      <c r="E164" t="s">
+        <v>21</v>
+      </c>
+      <c r="F164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B165">
+        <v>24</v>
+      </c>
+      <c r="C165" t="s">
+        <v>29</v>
+      </c>
+      <c r="D165" t="s">
+        <v>29</v>
+      </c>
+      <c r="E165" t="s">
+        <v>21</v>
+      </c>
+      <c r="F165">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>45962</v>
+      </c>
+      <c r="B166">
+        <v>24</v>
+      </c>
+      <c r="C166" t="s">
+        <v>29</v>
+      </c>
+      <c r="D166" t="s">
+        <v>29</v>
+      </c>
+      <c r="E166" t="s">
+        <v>21</v>
+      </c>
+      <c r="F166">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>45963</v>
+      </c>
+      <c r="B167">
+        <v>24</v>
+      </c>
+      <c r="C167" t="s">
+        <v>29</v>
+      </c>
+      <c r="D167" t="s">
+        <v>29</v>
+      </c>
+      <c r="E167" t="s">
+        <v>16</v>
+      </c>
+      <c r="G167" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/ref/Microciclos.xlsx
+++ b/data/ref/Microciclos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico\Desktop\DATA SCIENCE\PP- VOLUNTAREADO\chivas-ml\data\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1F217E-ED37-4742-B137-A1E9304408FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F836979B-47E8-4E86-95BB-36181EA54926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D2A59680-2B68-43A7-A0B3-40444AC197F4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="40">
   <si>
     <t>Fecha</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Pachuca</t>
+  </si>
+  <si>
+    <t>Monterrey</t>
   </si>
 </sst>
 </file>
@@ -540,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6662318-5429-45BF-A116-92A73FB7B911}">
-  <dimension ref="A1:G167"/>
+  <dimension ref="A1:G174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="126" workbookViewId="0">
-      <selection activeCell="H165" sqref="H165"/>
+    <sheetView tabSelected="1" topLeftCell="A161" zoomScale="126" workbookViewId="0">
+      <selection activeCell="D175" sqref="A175:D175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3688,6 +3691,140 @@
         <v>38</v>
       </c>
     </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B168">
+        <v>25</v>
+      </c>
+      <c r="C168" t="s">
+        <v>29</v>
+      </c>
+      <c r="D168" t="s">
+        <v>29</v>
+      </c>
+      <c r="E168" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B169">
+        <v>25</v>
+      </c>
+      <c r="C169" t="s">
+        <v>29</v>
+      </c>
+      <c r="D169" t="s">
+        <v>29</v>
+      </c>
+      <c r="E169" t="s">
+        <v>21</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B170">
+        <v>25</v>
+      </c>
+      <c r="C170" t="s">
+        <v>29</v>
+      </c>
+      <c r="D170" t="s">
+        <v>29</v>
+      </c>
+      <c r="E170" t="s">
+        <v>21</v>
+      </c>
+      <c r="F170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>45967</v>
+      </c>
+      <c r="B171">
+        <v>25</v>
+      </c>
+      <c r="C171" t="s">
+        <v>29</v>
+      </c>
+      <c r="D171" t="s">
+        <v>29</v>
+      </c>
+      <c r="E171" t="s">
+        <v>21</v>
+      </c>
+      <c r="F171">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>45968</v>
+      </c>
+      <c r="B172">
+        <v>25</v>
+      </c>
+      <c r="C172" t="s">
+        <v>29</v>
+      </c>
+      <c r="D172" t="s">
+        <v>29</v>
+      </c>
+      <c r="E172" t="s">
+        <v>21</v>
+      </c>
+      <c r="F172">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>45969</v>
+      </c>
+      <c r="B173">
+        <v>25</v>
+      </c>
+      <c r="C173" t="s">
+        <v>29</v>
+      </c>
+      <c r="D173" t="s">
+        <v>29</v>
+      </c>
+      <c r="E173" t="s">
+        <v>16</v>
+      </c>
+      <c r="G173" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>45970</v>
+      </c>
+      <c r="B174">
+        <v>25</v>
+      </c>
+      <c r="C174" t="s">
+        <v>29</v>
+      </c>
+      <c r="D174" t="s">
+        <v>29</v>
+      </c>
+      <c r="E174" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
